--- a/src/TestData/testdata.xlsx
+++ b/src/TestData/testdata.xlsx
@@ -7,14 +7,17 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="register_valid" sheetId="1" r:id="rId1"/>
+    <sheet name="androiddetails" sheetId="5" r:id="rId1"/>
+    <sheet name="register_valid" sheetId="1" r:id="rId2"/>
+    <sheet name="login_invalid" sheetId="3" r:id="rId3"/>
+    <sheet name="login_valid" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>FirstName</t>
   </si>
@@ -71,6 +74,33 @@
   </si>
   <si>
     <t>1998</t>
+  </si>
+  <si>
+    <t>pswrd</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>bgsanjana@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bgsanjana@gmail </t>
+  </si>
+  <si>
+    <t>sanjana1</t>
+  </si>
+  <si>
+    <t>sunil123</t>
+  </si>
+  <si>
+    <t>devicename</t>
+  </si>
+  <si>
+    <t>platformv</t>
+  </si>
+  <si>
+    <t>C5302</t>
   </si>
 </sst>
 </file>
@@ -424,10 +454,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,4 +570,81 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/TestData/testdata.xlsx
+++ b/src/TestData/testdata.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="androiddetails" sheetId="5" r:id="rId1"/>
-    <sheet name="register_valid" sheetId="1" r:id="rId2"/>
-    <sheet name="login_invalid" sheetId="3" r:id="rId3"/>
-    <sheet name="login_valid" sheetId="4" r:id="rId4"/>
+    <sheet name="gmaillogin" sheetId="6" r:id="rId2"/>
+    <sheet name="register_valid" sheetId="1" r:id="rId3"/>
+    <sheet name="login_invalid" sheetId="3" r:id="rId4"/>
+    <sheet name="login_valid" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>FirstName</t>
   </si>
@@ -101,6 +102,18 @@
   </si>
   <si>
     <t>C5302</t>
+  </si>
+  <si>
+    <t>UN</t>
+  </si>
+  <si>
+    <t>PSWRD</t>
+  </si>
+  <si>
+    <t>bgranjana7@gmail.com</t>
+  </si>
+  <si>
+    <t>bgranjana7</t>
   </si>
 </sst>
 </file>
@@ -456,7 +469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
@@ -484,6 +497,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -572,7 +619,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -615,12 +662,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
